--- a/hazardní stavy.xlsx
+++ b/hazardní stavy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radim\Desktop\git\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C0B53-DD00-4773-AE27-EE3ADA83C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36512F-0A9E-4C01-A9A6-632A7EC16615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,23 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>stav</t>
   </si>
   <si>
-    <t>přetlak přívodního potrubí</t>
-  </si>
-  <si>
-    <t>přetlak nádrže</t>
-  </si>
-  <si>
     <t>porucha motoru</t>
   </si>
   <si>
-    <t>porucha převodovky</t>
-  </si>
-  <si>
     <t>přehřátí motoru</t>
   </si>
   <si>
@@ -57,18 +48,9 @@
     <t>detekce stavu</t>
   </si>
   <si>
-    <t>snímač tlaku v přívodním potrubí</t>
-  </si>
-  <si>
-    <t>snímač tlaku v nádrži</t>
-  </si>
-  <si>
     <t>snímač otáček hřídele motoru</t>
   </si>
   <si>
-    <t>snímač otáček hřídele převodovky</t>
-  </si>
-  <si>
     <t>snímač teploty motoru</t>
   </si>
   <si>
@@ -93,10 +75,7 @@
     <t>průtokoměr výstupního potrubí</t>
   </si>
   <si>
-    <t>překročení krouticího momentu mixéru</t>
-  </si>
-  <si>
-    <t>snímač krouticího momentu mixéru</t>
+    <t>porucha převodovky nebo míchadla</t>
   </si>
 </sst>
 </file>
@@ -210,8 +189,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -492,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -509,12 +488,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -522,82 +501,58 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
